--- a/OLiVE_StateMachineGR.xlsx
+++ b/OLiVE_StateMachineGR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="360" windowWidth="16275" windowHeight="8265" activeTab="5"/>
+    <workbookView xWindow="360" yWindow="420" windowWidth="16275" windowHeight="8205" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3875" uniqueCount="1099">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3875" uniqueCount="1101">
   <si>
     <t>Current State</t>
   </si>
@@ -2871,9 +2871,6 @@
     <t>a/engine/Η παροχή ατμού από τον λέβητα στη μηχανή είναι κλειστή</t>
   </si>
   <si>
-    <t>Ωραία! Αυτή η βαλβίδα παρέχει ατμό από τον λέβημα στην ατμομηχανή</t>
-  </si>
-  <si>
     <t>i//Ωραία! Ξεκίνησες την παροχή ατμού στη μηχανή και όλο το εργοστάσιο ζωντάνεψε!</t>
   </si>
   <si>
@@ -3048,9 +3045,6 @@
     <t>Good, you opened the hydraulic bypass valve that provides water to Press No1</t>
   </si>
   <si>
-    <t>Ωραία, άνοιξες την υδραυλικό κοχλία ανακούφισης που παρέχει νερό στην Πρέσα No1</t>
-  </si>
-  <si>
     <t>i//Εξαιρετικά! Η Αντλία No1 αντλεί τώρα νερό προς την αντίστοιχη πρέσα</t>
   </si>
   <si>
@@ -3066,15 +3060,9 @@
     <t>Δεν πρέπει να σταματήσεις την αντλία ενώ ακόμα αντλεί νερό</t>
   </si>
   <si>
-    <t>Ωραία, σταμάτησες την άντληση νερού προς την πρέσα κλείνοντας τον υδραυλικό κοχλία ανακούφισης</t>
-  </si>
-  <si>
     <t>w/pumpL/Το αντλούμενο νερό στην Πρέσα No1 ξεπέρασε τα επιτρεπόμενα όρια πίεσης</t>
   </si>
   <si>
-    <t>Ωραία, άνοιξες την υδραυλικό κοχλία ανακούφισης που παρέχει νερό στην Πρέσα No2</t>
-  </si>
-  <si>
     <t>i//Εξαιρετικά! Η Αντλία No2 αντλεί τώρα νερό προς την αντίστοιχη πρέσα</t>
   </si>
   <si>
@@ -3090,24 +3078,15 @@
     <t>w/pumpR/Το αντλούμενο νερό στην Πρέσα No2 ξεπέρασε τα επιτρεπόμενα όρια πίεσης</t>
   </si>
   <si>
-    <t>Δεν έχει συλλεχθεί λάδι στα δοχεία κάτω από τις πρέσες (πολύμια), ξεκίνα τη διαδικασία συπίεσης</t>
-  </si>
-  <si>
     <t>a/oilPump/Η αντλία λαδιού είναι έτοιμη να λειτουργήσει και να γεμίσει τις μπλε δεξαμενές συλλογής λαδιού</t>
   </si>
   <si>
     <t>Ωραία! Ξεκίνησες την άντληση λαδιού από τις πρέσες στις δεξαμενές συλλογής λαδιού</t>
   </si>
   <si>
-    <t>i//Μόνο μια αντλία λαδιού χρησιμοποιούνταν για τη συλλογή λαδιού για κάθε δύο πρέσες</t>
-  </si>
-  <si>
     <t>Πρέπει να γεμίσουν με λάδι και τα δύο δοχεία των πρεσών πριν την άντληση, οπότε συνέχισε τη συμπίεση</t>
   </si>
   <si>
-    <t>a/oilPump/Το λάδι στα δοχεία των πρεσών (πολύμια) έχει αντληθεί, οπότε σταμάτα την αντλία</t>
-  </si>
-  <si>
     <t>Χρειάζεσαι κάποιον να βάλει και να τεντώσει τον ιμάντα στην τροχαλία του άξονα κίνησης</t>
   </si>
   <si>
@@ -3117,9 +3096,6 @@
     <t>Πολύ καλά! Αυτοί οι ιμάντες παρέχουν κίνηση από τη μηχανή στα μηχανήματα</t>
   </si>
   <si>
-    <t>Ωραία! Η αντλία λαδιού χρησιμοποιούνταν μόνο για την μεταφορά του μεικτού, ακάθαρτου λαδιού στους διαχωριστές</t>
-  </si>
-  <si>
     <t>Δεν υπάρχει ακόμα λάδι στο δοχείο, οπότε δεν χρειάζεται να το μετακινήσεις</t>
   </si>
   <si>
@@ -3273,9 +3249,6 @@
     <t>τη βαλβίδα παροχής ατμού</t>
   </si>
   <si>
-    <t>τον υδραυλικός κοχλία ανακούφισης</t>
-  </si>
-  <si>
     <t>τη θυρίδα του μύλου</t>
   </si>
   <si>
@@ -3339,15 +3312,6 @@
     <t>τη χειράμαξα</t>
   </si>
   <si>
-    <t>το μπράτσο μεταφοράς κίνησης της αντλίας</t>
-  </si>
-  <si>
-    <t>το χερούλι μεταφοράς κίνησης του Λαβάλ</t>
-  </si>
-  <si>
-    <t>το χερούλι μεταφοράς κίνησης της αντλίας λαδιού</t>
-  </si>
-  <si>
     <t>Δεν υπάρχει λόγος να χρησιμοποιήσεις %s με %s, αυτή τη στιγμή</t>
   </si>
   <si>
@@ -3519,13 +3483,55 @@
     <t>a/millL/Ο Μύλος No1 είναι άδειος, πρέπει να τον γεμίσεις με ελιές</t>
   </si>
   <si>
-    <t>Το δοχείο είναι γεμάτο λάδι και είναι πολύ βαρύ (περίπου 80 κιλά ) για να το μεταφέρεις μόνος σου</t>
-  </si>
-  <si>
     <t>Κάποιος πρέπει να περιστρέψει τη γωνία στη άλλην πλευρά, ενώ θα προσαρμόζεις το σωλήνα σ'αυτό το σύνδεσμο</t>
   </si>
   <si>
     <t>Χρησιμοποίησε τον κάβουρα για να περιστρέψεις τη γωνία, πριν προσαρμόσεις το σωλήνα σ'αυτό το σύνδεσμο</t>
+  </si>
+  <si>
+    <t>Ωραία! Η αντλία λαδιού χρησιμοποιούνταν μόνο για την μεταφορά του μεικτού, ακαθάριστου λαδιού στους διαχωριστές</t>
+  </si>
+  <si>
+    <t>τη βαλβίδα ανακούφισης</t>
+  </si>
+  <si>
+    <t>Ωραία, έσφιξες τη βαλβίδα ανακούφισης και ξεκίνησε η παροχή νερού στην Πρέσα No1</t>
+  </si>
+  <si>
+    <t>Ωραία, σταμάτησες την άντληση νερού προς την πρέσα χαλαρώνοντας τη βαλβίδα ανακούφισης</t>
+  </si>
+  <si>
+    <t>Ωραία, έσφιξες τη βαλβίδα ανακούφισης και ξεκίνησε η παροχή νερού στην Πρέσα No2</t>
+  </si>
+  <si>
+    <t>τον οδηγό μεταφοράς κίνησης του Λαβάλ</t>
+  </si>
+  <si>
+    <t>τον οδηγό μεταφοράς κίνησης της αντλίας</t>
+  </si>
+  <si>
+    <t>τον οδηγό μεταφοράς κίνησης της αντλίας λαδιού</t>
+  </si>
+  <si>
+    <t>Δεν έχει συλλεχθεί λάδι στα δοχεία κάτω από τις πρέσες (πολύμια), ξεκίνα τη διαδικασία συμπίεσης</t>
+  </si>
+  <si>
+    <t>a/oilPump/Το λάδι στα δοχεία των πρεσών έχει αντληθεί, οπότε σταμάτα την αντλία</t>
+  </si>
+  <si>
+    <t>i//Μόνο μία αντλία λαδιού χρησιμοποιούνταν για τη συλλογή λαδιού από τις δύο πρέσες</t>
+  </si>
+  <si>
+    <t>Ωραία! Αυτή η βαλβίδα παρέχει ατμό από τον λέβητα στην ατμομηχανή</t>
+  </si>
+  <si>
+    <t>weighing_pitcher[3, 80, 15]; increasing_total[3,80]; timerS1_reminder[30]</t>
+  </si>
+  <si>
+    <t>weighing_pitcher[3, 80, 15]; increasing_total[3,80]; error0_scale; timerS0_reminder</t>
+  </si>
+  <si>
+    <t>Το δοχείο είναι γεμάτο λάδι και είναι πολύ βαρύ (80 κιλά ) για να το μεταφέρεις μόνος σου</t>
   </si>
 </sst>
 </file>
@@ -5250,8 +5256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H316"/>
   <sheetViews>
-    <sheetView topLeftCell="C280" workbookViewId="0">
-      <selection activeCell="F305" sqref="F305"/>
+    <sheetView tabSelected="1" topLeftCell="A276" workbookViewId="0">
+      <selection activeCell="F283" sqref="F283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5282,7 +5288,7 @@
         <v>91</v>
       </c>
       <c r="F1" s="74" t="s">
-        <v>990</v>
+        <v>982</v>
       </c>
       <c r="G1" s="74" t="s">
         <v>88</v>
@@ -5841,7 +5847,7 @@
         <v>793</v>
       </c>
       <c r="F30" s="80" t="s">
-        <v>880</v>
+        <v>1097</v>
       </c>
       <c r="G30" s="80" t="s">
         <v>95</v>
@@ -5862,7 +5868,7 @@
         <v>285</v>
       </c>
       <c r="F31" s="81" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G31" s="81" t="s">
         <v>603</v>
@@ -5881,7 +5887,7 @@
       <c r="D32" s="44"/>
       <c r="E32" s="45"/>
       <c r="F32" s="82" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="G32" s="82" t="s">
         <v>602</v>
@@ -5915,7 +5921,7 @@
         <v>435</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>1095</v>
+        <v>1083</v>
       </c>
       <c r="G34" s="21" t="s">
         <v>457</v>
@@ -5936,7 +5942,7 @@
         <v>735</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>831</v>
@@ -5956,7 +5962,7 @@
         <v>736</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>831</v>
@@ -5979,7 +5985,7 @@
         <v>587</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>829</v>
@@ -6002,7 +6008,7 @@
         <v>588</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>829</v>
@@ -6058,7 +6064,7 @@
         <v>529</v>
       </c>
       <c r="F41" s="21" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="G41" s="21" t="s">
         <v>584</v>
@@ -6186,7 +6192,7 @@
       <c r="D48" s="24"/>
       <c r="E48" s="34"/>
       <c r="F48" s="23" t="s">
-        <v>995</v>
+        <v>987</v>
       </c>
       <c r="G48" s="23" t="s">
         <v>761</v>
@@ -6207,7 +6213,7 @@
         <v>510</v>
       </c>
       <c r="F49" s="38" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="G49" s="38" t="s">
         <v>585</v>
@@ -6310,7 +6316,7 @@
       <c r="D54" s="24"/>
       <c r="E54" s="34"/>
       <c r="F54" s="23" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="G54" s="23" t="s">
         <v>570</v>
@@ -6329,7 +6335,7 @@
       <c r="D55" s="24"/>
       <c r="E55" s="34"/>
       <c r="F55" s="23" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="G55" s="23" t="s">
         <v>570</v>
@@ -6346,7 +6352,7 @@
         <v>445</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>697</v>
@@ -6381,7 +6387,7 @@
         <v>760</v>
       </c>
       <c r="F58" s="21" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="G58" s="21" t="s">
         <v>586</v>
@@ -6400,7 +6406,7 @@
       <c r="D59" s="24"/>
       <c r="E59" s="34"/>
       <c r="F59" s="23" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="G59" s="23" t="s">
         <v>576</v>
@@ -6419,7 +6425,7 @@
       <c r="D60" s="24"/>
       <c r="E60" s="34"/>
       <c r="F60" s="23" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="G60" s="23" t="s">
         <v>778</v>
@@ -6440,7 +6446,7 @@
         <v>510</v>
       </c>
       <c r="F61" s="38" t="s">
-        <v>991</v>
+        <v>983</v>
       </c>
       <c r="G61" s="38" t="s">
         <v>582</v>
@@ -6480,7 +6486,7 @@
         <v>723</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>581</v>
@@ -6526,7 +6532,7 @@
       <c r="D66" s="19"/>
       <c r="E66" s="22"/>
       <c r="F66" s="21" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="G66" s="21" t="s">
         <v>698</v>
@@ -6545,7 +6551,7 @@
       <c r="D67" s="24"/>
       <c r="E67" s="34"/>
       <c r="F67" s="23" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="G67" s="23" t="s">
         <v>577</v>
@@ -6564,7 +6570,7 @@
       <c r="D68" s="24"/>
       <c r="E68" s="34"/>
       <c r="F68" s="23" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="G68" s="23" t="s">
         <v>577</v>
@@ -6581,7 +6587,7 @@
         <v>451</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>362</v>
@@ -6601,7 +6607,7 @@
         <v>734</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>699</v>
@@ -6624,7 +6630,7 @@
         <v>532</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>823</v>
@@ -6643,7 +6649,7 @@
       <c r="D72" s="19"/>
       <c r="E72" s="22"/>
       <c r="F72" s="21" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="G72" s="21" t="s">
         <v>825</v>
@@ -6684,7 +6690,7 @@
         <v>640</v>
       </c>
       <c r="F74" s="72" t="s">
-        <v>992</v>
+        <v>984</v>
       </c>
       <c r="G74" s="72" t="s">
         <v>583</v>
@@ -6777,7 +6783,7 @@
         <v>183</v>
       </c>
       <c r="F80" s="21" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="G80" s="21" t="s">
         <v>211</v>
@@ -6798,7 +6804,7 @@
         <v>738</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>831</v>
@@ -6818,7 +6824,7 @@
         <v>737</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>831</v>
@@ -6841,7 +6847,7 @@
         <v>589</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>830</v>
@@ -6864,7 +6870,7 @@
         <v>590</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>830</v>
@@ -6920,7 +6926,7 @@
         <v>530</v>
       </c>
       <c r="F87" s="21" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="G87" s="21" t="s">
         <v>579</v>
@@ -7029,7 +7035,7 @@
         <v>754</v>
       </c>
       <c r="F93" s="21" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="G93" s="21" t="s">
         <v>757</v>
@@ -7048,7 +7054,7 @@
       <c r="D94" s="24"/>
       <c r="E94" s="34"/>
       <c r="F94" s="23" t="s">
-        <v>995</v>
+        <v>987</v>
       </c>
       <c r="G94" s="23" t="s">
         <v>758</v>
@@ -7069,7 +7075,7 @@
         <v>509</v>
       </c>
       <c r="F95" s="38" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G95" s="38" t="s">
         <v>574</v>
@@ -7172,7 +7178,7 @@
       <c r="D100" s="24"/>
       <c r="E100" s="34"/>
       <c r="F100" s="23" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="G100" s="23" t="s">
         <v>570</v>
@@ -7191,7 +7197,7 @@
       <c r="D101" s="24"/>
       <c r="E101" s="34"/>
       <c r="F101" s="23" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="G101" s="23" t="s">
         <v>570</v>
@@ -7208,7 +7214,7 @@
         <v>390</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>571</v>
@@ -7243,7 +7249,7 @@
         <v>755</v>
       </c>
       <c r="F104" s="21" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="G104" s="21" t="s">
         <v>575</v>
@@ -7262,7 +7268,7 @@
       <c r="D105" s="24"/>
       <c r="E105" s="34"/>
       <c r="F105" s="23" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="G105" s="23" t="s">
         <v>778</v>
@@ -7281,7 +7287,7 @@
       <c r="D106" s="24"/>
       <c r="E106" s="34"/>
       <c r="F106" s="23" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="G106" s="23" t="s">
         <v>778</v>
@@ -7302,7 +7308,7 @@
         <v>509</v>
       </c>
       <c r="F107" s="38" t="s">
-        <v>994</v>
+        <v>986</v>
       </c>
       <c r="G107" s="38" t="s">
         <v>572</v>
@@ -7342,7 +7348,7 @@
         <v>724</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>581</v>
@@ -7388,7 +7394,7 @@
       <c r="D112" s="19"/>
       <c r="E112" s="22"/>
       <c r="F112" s="21" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="G112" s="21" t="s">
         <v>700</v>
@@ -7407,7 +7413,7 @@
       <c r="D113" s="24"/>
       <c r="E113" s="34"/>
       <c r="F113" s="23" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="G113" s="23" t="s">
         <v>577</v>
@@ -7426,7 +7432,7 @@
       <c r="D114" s="24"/>
       <c r="E114" s="34"/>
       <c r="F114" s="23" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="G114" s="23" t="s">
         <v>577</v>
@@ -7443,7 +7449,7 @@
         <v>391</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>362</v>
@@ -7463,7 +7469,7 @@
         <v>733</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>699</v>
@@ -7486,7 +7492,7 @@
         <v>531</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>823</v>
@@ -7505,7 +7511,7 @@
       <c r="D118" s="19"/>
       <c r="E118" s="22"/>
       <c r="F118" s="21" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="G118" s="21" t="s">
         <v>825</v>
@@ -7546,7 +7552,7 @@
         <v>573</v>
       </c>
       <c r="F120" s="72" t="s">
-        <v>993</v>
+        <v>985</v>
       </c>
       <c r="G120" s="72" t="s">
         <v>578</v>
@@ -7635,7 +7641,7 @@
         <v>212</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>629</v>
@@ -7656,7 +7662,7 @@
         <v>796</v>
       </c>
       <c r="F127" s="21" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="G127" s="21" t="s">
         <v>801</v>
@@ -7674,7 +7680,7 @@
       </c>
       <c r="E128" s="85"/>
       <c r="F128" s="25" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="G128" s="25" t="s">
         <v>802</v>
@@ -7714,7 +7720,7 @@
       <c r="D130" s="24"/>
       <c r="E130" s="34"/>
       <c r="F130" s="23" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="G130" s="23" t="s">
         <v>630</v>
@@ -7737,7 +7743,7 @@
         <v>226</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>631</v>
@@ -7775,7 +7781,7 @@
       <c r="D133" s="24"/>
       <c r="E133" s="34"/>
       <c r="F133" s="23" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="G133" s="23" t="s">
         <v>546</v>
@@ -7794,7 +7800,7 @@
       <c r="D134" s="24"/>
       <c r="E134" s="34"/>
       <c r="F134" s="23" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="G134" s="23" t="s">
         <v>701</v>
@@ -7813,7 +7819,7 @@
       <c r="D135" s="24"/>
       <c r="E135" s="34"/>
       <c r="F135" s="23" t="s">
-        <v>1032</v>
+        <v>1023</v>
       </c>
       <c r="G135" s="23" t="s">
         <v>702</v>
@@ -7833,7 +7839,7 @@
         <v>541</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>1033</v>
+        <v>1024</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>633</v>
@@ -7850,7 +7856,7 @@
         <v>545</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>1034</v>
+        <v>1025</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>634</v>
@@ -7870,7 +7876,7 @@
         <v>732</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>703</v>
@@ -7887,7 +7893,7 @@
         <v>210</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>635</v>
@@ -7910,7 +7916,7 @@
         <v>534</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>636</v>
@@ -7929,7 +7935,7 @@
       <c r="D141" s="19"/>
       <c r="E141" s="22"/>
       <c r="F141" s="21" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="G141" s="21" t="s">
         <v>704</v>
@@ -7946,7 +7952,7 @@
         <v>212</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G142" s="2" t="s">
         <v>229</v>
@@ -8018,7 +8024,7 @@
         <v>328</v>
       </c>
       <c r="F146" s="21" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="G146" s="21" t="s">
         <v>637</v>
@@ -8035,7 +8041,7 @@
         <v>459</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>1012</v>
+        <v>1004</v>
       </c>
       <c r="G147" s="2" t="s">
         <v>638</v>
@@ -8058,7 +8064,7 @@
         <v>725</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>1008</v>
+        <v>1000</v>
       </c>
       <c r="G148" s="2" t="s">
         <v>783</v>
@@ -8077,7 +8083,7 @@
       <c r="D149" s="19"/>
       <c r="E149" s="22"/>
       <c r="F149" s="21" t="s">
-        <v>1009</v>
+        <v>1001</v>
       </c>
       <c r="G149" s="21" t="s">
         <v>781</v>
@@ -8097,7 +8103,7 @@
         <v>727</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="G150" s="2" t="s">
         <v>230</v>
@@ -8147,7 +8153,7 @@
         <v>753</v>
       </c>
       <c r="F152" s="21" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="G152" s="21" t="s">
         <v>396</v>
@@ -8164,7 +8170,7 @@
         <v>394</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>1011</v>
+        <v>1003</v>
       </c>
       <c r="G153" s="2" t="s">
         <v>537</v>
@@ -8203,7 +8209,7 @@
       <c r="D155" s="19"/>
       <c r="E155" s="22"/>
       <c r="F155" s="21" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G155" s="21" t="s">
         <v>339</v>
@@ -8242,7 +8248,7 @@
         <v>328</v>
       </c>
       <c r="F157" s="21" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="G157" s="21" t="s">
         <v>338</v>
@@ -8299,7 +8305,7 @@
         <v>334</v>
       </c>
       <c r="F160" s="21" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="G160" s="21" t="s">
         <v>705</v>
@@ -8357,7 +8363,7 @@
         <v>508</v>
       </c>
       <c r="F163" s="78" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="G163" s="78" t="s">
         <v>432</v>
@@ -8410,7 +8416,7 @@
       <c r="D166" s="54"/>
       <c r="E166" s="55"/>
       <c r="F166" s="53" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="G166" s="53" t="s">
         <v>409</v>
@@ -8462,7 +8468,7 @@
         <v>223</v>
       </c>
       <c r="F169" s="21" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="G169" s="21" t="s">
         <v>639</v>
@@ -8479,7 +8485,7 @@
         <v>458</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>1012</v>
+        <v>1004</v>
       </c>
       <c r="G170" s="2" t="s">
         <v>638</v>
@@ -8502,7 +8508,7 @@
         <v>726</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>1008</v>
+        <v>1000</v>
       </c>
       <c r="G171" s="2" t="s">
         <v>783</v>
@@ -8521,7 +8527,7 @@
       <c r="D172" s="19"/>
       <c r="E172" s="22"/>
       <c r="F172" s="21" t="s">
-        <v>1009</v>
+        <v>1001</v>
       </c>
       <c r="G172" s="21" t="s">
         <v>781</v>
@@ -8541,7 +8547,7 @@
         <v>728</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="G173" s="2" t="s">
         <v>230</v>
@@ -8591,7 +8597,7 @@
         <v>753</v>
       </c>
       <c r="F175" s="21" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="G175" s="21" t="s">
         <v>397</v>
@@ -8608,7 +8614,7 @@
         <v>395</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>1010</v>
+        <v>1002</v>
       </c>
       <c r="G176" s="2" t="s">
         <v>537</v>
@@ -8647,7 +8653,7 @@
       <c r="D178" s="19"/>
       <c r="E178" s="22"/>
       <c r="F178" s="21" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="G178" s="21" t="s">
         <v>253</v>
@@ -8688,7 +8694,7 @@
         <v>223</v>
       </c>
       <c r="F180" s="21" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="G180" s="21" t="s">
         <v>235</v>
@@ -8747,7 +8753,7 @@
         <v>257</v>
       </c>
       <c r="F183" s="21" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="G183" s="21" t="s">
         <v>706</v>
@@ -8806,7 +8812,7 @@
         <v>507</v>
       </c>
       <c r="F186" s="78" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="G186" s="78" t="s">
         <v>411</v>
@@ -8859,7 +8865,7 @@
       <c r="D189" s="54"/>
       <c r="E189" s="55"/>
       <c r="F189" s="53" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="G189" s="53" t="s">
         <v>409</v>
@@ -8922,7 +8928,7 @@
       <c r="D193" s="24"/>
       <c r="E193" s="34"/>
       <c r="F193" s="23" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="G193" s="23" t="s">
         <v>254</v>
@@ -8942,7 +8948,7 @@
       <c r="D194" s="24"/>
       <c r="E194" s="34"/>
       <c r="F194" s="23" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="G194" s="23" t="s">
         <v>242</v>
@@ -8964,7 +8970,7 @@
         <v>415</v>
       </c>
       <c r="F195" s="21" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="G195" s="21" t="s">
         <v>427</v>
@@ -8987,7 +8993,7 @@
         <v>417</v>
       </c>
       <c r="F196" s="23" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="G196" s="23" t="s">
         <v>607</v>
@@ -9007,7 +9013,7 @@
       <c r="D197" s="24"/>
       <c r="E197" s="34"/>
       <c r="F197" s="23" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="G197" s="23" t="s">
         <v>255</v>
@@ -9044,7 +9050,7 @@
         <v>841</v>
       </c>
       <c r="F199" s="23" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="G199" s="23" t="s">
         <v>608</v>
@@ -9064,7 +9070,7 @@
       <c r="D200" s="24"/>
       <c r="E200" s="34"/>
       <c r="F200" s="23" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="G200" s="23" t="s">
         <v>265</v>
@@ -9086,7 +9092,7 @@
         <v>415</v>
       </c>
       <c r="F201" s="21" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="G201" s="21" t="s">
         <v>708</v>
@@ -9105,7 +9111,7 @@
       <c r="D202" s="24"/>
       <c r="E202" s="34"/>
       <c r="F202" s="23" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G202" s="23" t="s">
         <v>609</v>
@@ -9129,10 +9135,10 @@
         <v>828</v>
       </c>
       <c r="F203" s="23" t="s">
-        <v>939</v>
+        <v>1088</v>
       </c>
       <c r="G203" s="23" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="H203" s="23"/>
     </row>
@@ -9151,7 +9157,7 @@
         <v>516</v>
       </c>
       <c r="F204" s="21" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="G204" s="21" t="s">
         <v>426</v>
@@ -9170,7 +9176,7 @@
       <c r="D205" s="24"/>
       <c r="E205" s="34"/>
       <c r="F205" s="23" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="G205" s="23" t="s">
         <v>246</v>
@@ -9189,7 +9195,7 @@
       <c r="D206" s="24"/>
       <c r="E206" s="34"/>
       <c r="F206" s="23" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="G206" s="23" t="s">
         <v>247</v>
@@ -9281,7 +9287,7 @@
       <c r="D211" s="24"/>
       <c r="E211" s="34"/>
       <c r="F211" s="23" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="G211" s="23" t="s">
         <v>249</v>
@@ -9304,7 +9310,7 @@
         <v>835</v>
       </c>
       <c r="F212" s="23" t="s">
-        <v>945</v>
+        <v>1089</v>
       </c>
       <c r="G212" s="23" t="s">
         <v>649</v>
@@ -9364,7 +9370,7 @@
         <v>422</v>
       </c>
       <c r="F215" s="72" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="G215" s="72" t="s">
         <v>707</v>
@@ -9426,7 +9432,7 @@
       <c r="D219" s="24"/>
       <c r="E219" s="34"/>
       <c r="F219" s="23" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="G219" s="23" t="s">
         <v>254</v>
@@ -9446,7 +9452,7 @@
       <c r="D220" s="24"/>
       <c r="E220" s="34"/>
       <c r="F220" s="23" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="G220" s="23" t="s">
         <v>242</v>
@@ -9468,7 +9474,7 @@
         <v>290</v>
       </c>
       <c r="F221" s="21" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="G221" s="21" t="s">
         <v>291</v>
@@ -9491,7 +9497,7 @@
         <v>404</v>
       </c>
       <c r="F222" s="23" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="G222" s="23" t="s">
         <v>610</v>
@@ -9511,7 +9517,7 @@
       <c r="D223" s="24"/>
       <c r="E223" s="34"/>
       <c r="F223" s="23" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="G223" s="23" t="s">
         <v>255</v>
@@ -9548,7 +9554,7 @@
         <v>842</v>
       </c>
       <c r="F225" s="23" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="G225" s="23" t="s">
         <v>608</v>
@@ -9568,7 +9574,7 @@
       <c r="D226" s="24"/>
       <c r="E226" s="34"/>
       <c r="F226" s="23" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="G226" s="23" t="s">
         <v>265</v>
@@ -9590,7 +9596,7 @@
         <v>290</v>
       </c>
       <c r="F227" s="21" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="G227" s="21" t="s">
         <v>709</v>
@@ -9609,7 +9615,7 @@
       <c r="D228" s="24"/>
       <c r="E228" s="34"/>
       <c r="F228" s="23" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G228" s="23" t="s">
         <v>609</v>
@@ -9633,7 +9639,7 @@
         <v>827</v>
       </c>
       <c r="F229" s="23" t="s">
-        <v>947</v>
+        <v>1090</v>
       </c>
       <c r="G229" s="23" t="s">
         <v>648</v>
@@ -9655,7 +9661,7 @@
         <v>523</v>
       </c>
       <c r="F230" s="21" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="G230" s="21" t="s">
         <v>292</v>
@@ -9674,7 +9680,7 @@
       <c r="D231" s="24"/>
       <c r="E231" s="34"/>
       <c r="F231" s="23" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="G231" s="23" t="s">
         <v>246</v>
@@ -9693,7 +9699,7 @@
       <c r="D232" s="24"/>
       <c r="E232" s="34"/>
       <c r="F232" s="23" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="G232" s="23" t="s">
         <v>247</v>
@@ -9783,7 +9789,7 @@
       <c r="D237" s="24"/>
       <c r="E237" s="34"/>
       <c r="F237" s="23" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="G237" s="23" t="s">
         <v>249</v>
@@ -9806,7 +9812,7 @@
         <v>836</v>
       </c>
       <c r="F238" s="23" t="s">
-        <v>945</v>
+        <v>1089</v>
       </c>
       <c r="G238" s="23" t="s">
         <v>649</v>
@@ -9826,7 +9832,7 @@
         <v>527</v>
       </c>
       <c r="F239" s="37" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="G239" s="37" t="s">
         <v>746</v>
@@ -9866,7 +9872,7 @@
         <v>410</v>
       </c>
       <c r="F241" s="72" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="G241" s="72" t="s">
         <v>710</v>
@@ -9926,7 +9932,7 @@
         <v>295</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>953</v>
+        <v>1094</v>
       </c>
       <c r="G245" s="2" t="s">
         <v>297</v>
@@ -9956,7 +9962,7 @@
         <v>295</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="G247" s="2" t="s">
         <v>325</v>
@@ -9977,7 +9983,7 @@
         <v>305</v>
       </c>
       <c r="F248" s="21" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="G248" s="21" t="s">
         <v>300</v>
@@ -10000,7 +10006,7 @@
         <v>535</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="G249" s="2" t="s">
         <v>299</v>
@@ -10021,7 +10027,7 @@
         <v>533</v>
       </c>
       <c r="F250" s="21" t="s">
-        <v>956</v>
+        <v>1096</v>
       </c>
       <c r="G250" s="21" t="s">
         <v>322</v>
@@ -10090,7 +10096,7 @@
         <v>305</v>
       </c>
       <c r="F254" s="21" t="s">
-        <v>958</v>
+        <v>1095</v>
       </c>
       <c r="G254" s="21" t="s">
         <v>313</v>
@@ -10113,7 +10119,7 @@
         <v>352</v>
       </c>
       <c r="F255" s="46" t="s">
-        <v>962</v>
+        <v>1086</v>
       </c>
       <c r="G255" s="46" t="s">
         <v>342</v>
@@ -10164,7 +10170,7 @@
         <v>379</v>
       </c>
       <c r="F258" s="2" t="s">
-        <v>966</v>
+        <v>958</v>
       </c>
       <c r="G258" s="2" t="s">
         <v>611</v>
@@ -10181,7 +10187,7 @@
         <v>380</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="G259" s="2" t="s">
         <v>712</v>
@@ -10201,7 +10207,7 @@
         <v>731</v>
       </c>
       <c r="F260" s="2" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
       <c r="G260" s="2" t="s">
         <v>612</v>
@@ -10218,7 +10224,7 @@
         <v>278</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>959</v>
+        <v>952</v>
       </c>
       <c r="G261" s="2" t="s">
         <v>614</v>
@@ -10235,7 +10241,7 @@
         <v>279</v>
       </c>
       <c r="F262" s="2" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="G262" s="2" t="s">
         <v>713</v>
@@ -10252,7 +10258,7 @@
         <v>99</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
       <c r="G263" s="2" t="s">
         <v>613</v>
@@ -10275,7 +10281,7 @@
         <v>615</v>
       </c>
       <c r="F264" s="2" t="s">
-        <v>961</v>
+        <v>954</v>
       </c>
       <c r="G264" s="2" t="s">
         <v>97</v>
@@ -10297,7 +10303,7 @@
       <c r="D265" s="60"/>
       <c r="E265" s="61"/>
       <c r="F265" s="59" t="s">
-        <v>965</v>
+        <v>957</v>
       </c>
       <c r="G265" s="59" t="s">
         <v>714</v>
@@ -10329,7 +10335,7 @@
       <c r="D267" s="54"/>
       <c r="E267" s="55"/>
       <c r="F267" s="53" t="s">
-        <v>980</v>
+        <v>972</v>
       </c>
       <c r="G267" s="53" t="s">
         <v>321</v>
@@ -10350,7 +10356,7 @@
         <v>357</v>
       </c>
       <c r="F268" s="21" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
       <c r="G268" s="21" t="s">
         <v>358</v>
@@ -10367,7 +10373,7 @@
         <v>368</v>
       </c>
       <c r="F269" s="2" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="G269" s="2" t="s">
         <v>568</v>
@@ -10387,7 +10393,7 @@
         <v>354</v>
       </c>
       <c r="F270" s="2" t="s">
-        <v>971</v>
+        <v>963</v>
       </c>
       <c r="G270" s="2" t="s">
         <v>715</v>
@@ -10408,7 +10414,7 @@
         <v>563</v>
       </c>
       <c r="F271" s="21" t="s">
-        <v>972</v>
+        <v>964</v>
       </c>
       <c r="G271" s="21" t="s">
         <v>556</v>
@@ -10425,7 +10431,7 @@
         <v>514</v>
       </c>
       <c r="F272" s="2" t="s">
-        <v>973</v>
+        <v>965</v>
       </c>
       <c r="G272" s="2" t="s">
         <v>345</v>
@@ -10442,7 +10448,7 @@
         <v>368</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
       <c r="G273" s="2" t="s">
         <v>569</v>
@@ -10462,7 +10468,7 @@
         <v>567</v>
       </c>
       <c r="F274" s="23" t="s">
-        <v>974</v>
+        <v>966</v>
       </c>
       <c r="G274" s="23" t="s">
         <v>555</v>
@@ -10497,7 +10503,7 @@
         <v>566</v>
       </c>
       <c r="F276" s="21" t="s">
-        <v>975</v>
+        <v>967</v>
       </c>
       <c r="G276" s="21" t="s">
         <v>359</v>
@@ -10518,7 +10524,7 @@
         <v>564</v>
       </c>
       <c r="F277" s="38" t="s">
-        <v>1077</v>
+        <v>1065</v>
       </c>
       <c r="G277" s="38" t="s">
         <v>551</v>
@@ -10554,7 +10560,7 @@
       <c r="D279" s="24"/>
       <c r="E279" s="34"/>
       <c r="F279" s="23" t="s">
-        <v>978</v>
+        <v>970</v>
       </c>
       <c r="G279" s="23" t="s">
         <v>716</v>
@@ -10577,7 +10583,7 @@
         <v>837</v>
       </c>
       <c r="F280" s="2" t="s">
-        <v>964</v>
+        <v>956</v>
       </c>
       <c r="G280" s="2" t="s">
         <v>351</v>
@@ -10610,7 +10616,7 @@
         <v>729</v>
       </c>
       <c r="F282" s="2" t="s">
-        <v>1096</v>
+        <v>1100</v>
       </c>
       <c r="G282" s="2" t="s">
         <v>717</v>
@@ -10630,7 +10636,7 @@
         <v>616</v>
       </c>
       <c r="F283" s="2" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
       <c r="G283" s="2" t="s">
         <v>742</v>
@@ -10671,7 +10677,7 @@
         <v>512</v>
       </c>
       <c r="F285" s="72" t="s">
-        <v>976</v>
+        <v>968</v>
       </c>
       <c r="G285" s="72" t="s">
         <v>552</v>
@@ -10733,7 +10739,7 @@
       <c r="D289" s="54"/>
       <c r="E289" s="55"/>
       <c r="F289" s="53" t="s">
-        <v>981</v>
+        <v>973</v>
       </c>
       <c r="G289" s="53" t="s">
         <v>344</v>
@@ -10754,7 +10760,7 @@
         <v>318</v>
       </c>
       <c r="F290" s="21" t="s">
-        <v>982</v>
+        <v>974</v>
       </c>
       <c r="G290" s="21" t="s">
         <v>360</v>
@@ -10771,7 +10777,7 @@
         <v>363</v>
       </c>
       <c r="F291" s="2" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="G291" s="2" t="s">
         <v>568</v>
@@ -10791,7 +10797,7 @@
         <v>317</v>
       </c>
       <c r="F292" s="2" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
       <c r="G292" s="2" t="s">
         <v>718</v>
@@ -10812,7 +10818,7 @@
         <v>559</v>
       </c>
       <c r="F293" s="21" t="s">
-        <v>984</v>
+        <v>976</v>
       </c>
       <c r="G293" s="21" t="s">
         <v>554</v>
@@ -10829,7 +10835,7 @@
         <v>513</v>
       </c>
       <c r="F294" s="2" t="s">
-        <v>973</v>
+        <v>965</v>
       </c>
       <c r="G294" s="2" t="s">
         <v>345</v>
@@ -10846,7 +10852,7 @@
         <v>363</v>
       </c>
       <c r="F295" s="2" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
       <c r="G295" s="2" t="s">
         <v>569</v>
@@ -10866,7 +10872,7 @@
         <v>557</v>
       </c>
       <c r="F296" s="23" t="s">
-        <v>985</v>
+        <v>977</v>
       </c>
       <c r="G296" s="23" t="s">
         <v>553</v>
@@ -10901,7 +10907,7 @@
         <v>560</v>
       </c>
       <c r="F298" s="21" t="s">
-        <v>986</v>
+        <v>978</v>
       </c>
       <c r="G298" s="21" t="s">
         <v>348</v>
@@ -10922,7 +10928,7 @@
         <v>558</v>
       </c>
       <c r="F299" s="38" t="s">
-        <v>1076</v>
+        <v>1064</v>
       </c>
       <c r="G299" s="38" t="s">
         <v>550</v>
@@ -10958,7 +10964,7 @@
       <c r="D301" s="24"/>
       <c r="E301" s="34"/>
       <c r="F301" s="23" t="s">
-        <v>978</v>
+        <v>970</v>
       </c>
       <c r="G301" s="23" t="s">
         <v>716</v>
@@ -10981,7 +10987,7 @@
         <v>838</v>
       </c>
       <c r="F302" s="2" t="s">
-        <v>964</v>
+        <v>956</v>
       </c>
       <c r="G302" s="2" t="s">
         <v>351</v>
@@ -11014,7 +11020,7 @@
         <v>730</v>
       </c>
       <c r="F304" s="2" t="s">
-        <v>1096</v>
+        <v>1100</v>
       </c>
       <c r="G304" s="2" t="s">
         <v>717</v>
@@ -11034,7 +11040,7 @@
         <v>617</v>
       </c>
       <c r="F305" s="2" t="s">
-        <v>987</v>
+        <v>979</v>
       </c>
       <c r="G305" s="2" t="s">
         <v>741</v>
@@ -11075,7 +11081,7 @@
         <v>511</v>
       </c>
       <c r="F307" s="72" t="s">
-        <v>988</v>
+        <v>980</v>
       </c>
       <c r="G307" s="72" t="s">
         <v>549</v>
@@ -11146,7 +11152,7 @@
         <v>374</v>
       </c>
       <c r="E311" s="4" t="s">
-        <v>768</v>
+        <v>1098</v>
       </c>
       <c r="H311" s="70" t="s">
         <v>377</v>
@@ -11165,7 +11171,7 @@
       <c r="D312" s="19"/>
       <c r="E312" s="22"/>
       <c r="F312" s="21" t="s">
-        <v>1075</v>
+        <v>1063</v>
       </c>
       <c r="G312" s="21" t="s">
         <v>826</v>
@@ -11186,7 +11192,7 @@
         <v>769</v>
       </c>
       <c r="F313" s="23" t="s">
-        <v>989</v>
+        <v>981</v>
       </c>
       <c r="G313" s="23" t="s">
         <v>771</v>
@@ -11206,7 +11212,7 @@
         <v>375</v>
       </c>
       <c r="E314" s="4" t="s">
-        <v>845</v>
+        <v>1099</v>
       </c>
       <c r="H314" s="70" t="s">
         <v>377</v>
@@ -11244,7 +11250,7 @@
         <v>378</v>
       </c>
       <c r="E316" s="4" t="s">
-        <v>1074</v>
+        <v>1062</v>
       </c>
     </row>
   </sheetData>
@@ -11566,8 +11572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11579,101 +11585,101 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1062</v>
+        <v>1050</v>
       </c>
       <c r="B1" t="s">
-        <v>1064</v>
+        <v>1052</v>
       </c>
       <c r="C1" t="s">
-        <v>1063</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1065</v>
+        <v>1053</v>
       </c>
       <c r="B2" t="s">
-        <v>1067</v>
+        <v>1055</v>
       </c>
       <c r="C2" t="s">
-        <v>1066</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1068</v>
+        <v>1056</v>
       </c>
       <c r="B3" t="s">
-        <v>1069</v>
+        <v>1057</v>
       </c>
       <c r="C3" t="s">
-        <v>1073</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1070</v>
+        <v>1058</v>
       </c>
       <c r="B4" t="s">
-        <v>1071</v>
+        <v>1059</v>
       </c>
       <c r="C4" t="s">
-        <v>1072</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1080</v>
+        <v>1068</v>
       </c>
       <c r="B5" t="s">
-        <v>1078</v>
+        <v>1066</v>
       </c>
       <c r="C5" t="s">
-        <v>1079</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1081</v>
+        <v>1069</v>
       </c>
       <c r="B6" t="s">
-        <v>1091</v>
+        <v>1079</v>
       </c>
       <c r="C6" t="s">
-        <v>1089</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1088</v>
+        <v>1076</v>
       </c>
       <c r="B7" t="s">
-        <v>1092</v>
+        <v>1080</v>
       </c>
       <c r="C7" t="s">
-        <v>1090</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1082</v>
+        <v>1070</v>
       </c>
       <c r="B8" t="s">
-        <v>1084</v>
+        <v>1072</v>
       </c>
       <c r="C8" t="s">
-        <v>1083</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1085</v>
+        <v>1073</v>
       </c>
       <c r="B9" t="s">
-        <v>1086</v>
+        <v>1074</v>
       </c>
       <c r="C9" t="s">
-        <v>1087</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -11681,7 +11687,7 @@
         <v>460</v>
       </c>
       <c r="B10" t="s">
-        <v>1000</v>
+        <v>992</v>
       </c>
       <c r="C10" t="s">
         <v>461</v>
@@ -11692,7 +11698,7 @@
         <v>462</v>
       </c>
       <c r="B11" t="s">
-        <v>1001</v>
+        <v>993</v>
       </c>
       <c r="C11" t="s">
         <v>641</v>
@@ -11703,7 +11709,7 @@
         <v>476</v>
       </c>
       <c r="B12" t="s">
-        <v>1002</v>
+        <v>994</v>
       </c>
       <c r="C12" t="s">
         <v>166</v>
@@ -11714,7 +11720,7 @@
         <v>463</v>
       </c>
       <c r="B13" t="s">
-        <v>1003</v>
+        <v>995</v>
       </c>
       <c r="C13" t="s">
         <v>627</v>
@@ -11725,7 +11731,7 @@
         <v>464</v>
       </c>
       <c r="B14" t="s">
-        <v>1004</v>
+        <v>996</v>
       </c>
       <c r="C14" t="s">
         <v>591</v>
@@ -11736,7 +11742,7 @@
         <v>467</v>
       </c>
       <c r="B15" t="s">
-        <v>1004</v>
+        <v>996</v>
       </c>
       <c r="C15" t="s">
         <v>591</v>
@@ -11747,7 +11753,7 @@
         <v>773</v>
       </c>
       <c r="B16" t="s">
-        <v>1005</v>
+        <v>997</v>
       </c>
       <c r="C16" t="s">
         <v>775</v>
@@ -11758,7 +11764,7 @@
         <v>777</v>
       </c>
       <c r="B17" t="s">
-        <v>1005</v>
+        <v>997</v>
       </c>
       <c r="C17" t="s">
         <v>775</v>
@@ -11769,7 +11775,7 @@
         <v>465</v>
       </c>
       <c r="B18" t="s">
-        <v>1006</v>
+        <v>998</v>
       </c>
       <c r="C18" t="s">
         <v>488</v>
@@ -11780,7 +11786,7 @@
         <v>466</v>
       </c>
       <c r="B19" t="s">
-        <v>1006</v>
+        <v>998</v>
       </c>
       <c r="C19" t="s">
         <v>488</v>
@@ -11791,7 +11797,7 @@
         <v>477</v>
       </c>
       <c r="B20" t="s">
-        <v>1006</v>
+        <v>998</v>
       </c>
       <c r="C20" t="s">
         <v>488</v>
@@ -11802,7 +11808,7 @@
         <v>478</v>
       </c>
       <c r="B21" t="s">
-        <v>1006</v>
+        <v>998</v>
       </c>
       <c r="C21" t="s">
         <v>488</v>
@@ -11813,7 +11819,7 @@
         <v>468</v>
       </c>
       <c r="B22" t="s">
-        <v>1007</v>
+        <v>999</v>
       </c>
       <c r="C22" t="s">
         <v>489</v>
@@ -11824,7 +11830,7 @@
         <v>473</v>
       </c>
       <c r="B23" t="s">
-        <v>1007</v>
+        <v>999</v>
       </c>
       <c r="C23" t="s">
         <v>489</v>
@@ -11835,7 +11841,7 @@
         <v>469</v>
       </c>
       <c r="B24" t="s">
-        <v>1036</v>
+        <v>1092</v>
       </c>
       <c r="C24" t="s">
         <v>642</v>
@@ -11846,7 +11852,7 @@
         <v>472</v>
       </c>
       <c r="B25" t="s">
-        <v>1036</v>
+        <v>1092</v>
       </c>
       <c r="C25" t="s">
         <v>642</v>
@@ -11857,7 +11863,7 @@
         <v>491</v>
       </c>
       <c r="B26" t="s">
-        <v>1037</v>
+        <v>1091</v>
       </c>
       <c r="C26" t="s">
         <v>643</v>
@@ -11868,7 +11874,7 @@
         <v>492</v>
       </c>
       <c r="B27" t="s">
-        <v>1037</v>
+        <v>1091</v>
       </c>
       <c r="C27" t="s">
         <v>643</v>
@@ -11879,7 +11885,7 @@
         <v>536</v>
       </c>
       <c r="B28" t="s">
-        <v>1038</v>
+        <v>1093</v>
       </c>
       <c r="C28" t="s">
         <v>644</v>
@@ -11890,7 +11896,7 @@
         <v>470</v>
       </c>
       <c r="B29" t="s">
-        <v>1013</v>
+        <v>1005</v>
       </c>
       <c r="C29" t="s">
         <v>645</v>
@@ -11901,7 +11907,7 @@
         <v>471</v>
       </c>
       <c r="B30" t="s">
-        <v>1014</v>
+        <v>1087</v>
       </c>
       <c r="C30" t="s">
         <v>646</v>
@@ -11912,7 +11918,7 @@
         <v>479</v>
       </c>
       <c r="B31" t="s">
-        <v>1014</v>
+        <v>1087</v>
       </c>
       <c r="C31" t="s">
         <v>646</v>
@@ -11923,7 +11929,7 @@
         <v>474</v>
       </c>
       <c r="B32" t="s">
-        <v>1093</v>
+        <v>1081</v>
       </c>
       <c r="C32" t="s">
         <v>628</v>
@@ -11934,7 +11940,7 @@
         <v>475</v>
       </c>
       <c r="B33" t="s">
-        <v>1015</v>
+        <v>1006</v>
       </c>
       <c r="C33" t="s">
         <v>647</v>
@@ -11945,7 +11951,7 @@
         <v>480</v>
       </c>
       <c r="B34" t="s">
-        <v>1015</v>
+        <v>1006</v>
       </c>
       <c r="C34" t="s">
         <v>647</v>
@@ -11956,7 +11962,7 @@
         <v>481</v>
       </c>
       <c r="B35" t="s">
-        <v>1016</v>
+        <v>1007</v>
       </c>
       <c r="C35" t="s">
         <v>490</v>
@@ -11967,7 +11973,7 @@
         <v>486</v>
       </c>
       <c r="B36" t="s">
-        <v>1016</v>
+        <v>1007</v>
       </c>
       <c r="C36" t="s">
         <v>490</v>
@@ -11978,7 +11984,7 @@
         <v>482</v>
       </c>
       <c r="B37" t="s">
-        <v>1017</v>
+        <v>1008</v>
       </c>
       <c r="C37" t="s">
         <v>592</v>
@@ -11989,7 +11995,7 @@
         <v>485</v>
       </c>
       <c r="B38" t="s">
-        <v>1017</v>
+        <v>1008</v>
       </c>
       <c r="C38" t="s">
         <v>592</v>
@@ -12000,7 +12006,7 @@
         <v>483</v>
       </c>
       <c r="B39" t="s">
-        <v>1018</v>
+        <v>1009</v>
       </c>
       <c r="C39" t="s">
         <v>622</v>
@@ -12011,7 +12017,7 @@
         <v>484</v>
       </c>
       <c r="B40" t="s">
-        <v>1019</v>
+        <v>1010</v>
       </c>
       <c r="C40" t="s">
         <v>593</v>
@@ -12022,7 +12028,7 @@
         <v>487</v>
       </c>
       <c r="B41" t="s">
-        <v>1004</v>
+        <v>996</v>
       </c>
       <c r="C41" t="s">
         <v>591</v>
@@ -12033,7 +12039,7 @@
         <v>493</v>
       </c>
       <c r="B42" t="s">
-        <v>1020</v>
+        <v>1011</v>
       </c>
       <c r="C42" t="s">
         <v>493</v>
@@ -12044,7 +12050,7 @@
         <v>494</v>
       </c>
       <c r="B43" t="s">
-        <v>1021</v>
+        <v>1012</v>
       </c>
       <c r="C43" t="s">
         <v>494</v>
@@ -12055,7 +12061,7 @@
         <v>495</v>
       </c>
       <c r="B44" t="s">
-        <v>1040</v>
+        <v>1028</v>
       </c>
       <c r="C44" t="s">
         <v>501</v>
@@ -12066,7 +12072,7 @@
         <v>496</v>
       </c>
       <c r="B45" t="s">
-        <v>1022</v>
+        <v>1013</v>
       </c>
       <c r="C45" t="s">
         <v>496</v>
@@ -12077,7 +12083,7 @@
         <v>497</v>
       </c>
       <c r="B46" t="s">
-        <v>1023</v>
+        <v>1014</v>
       </c>
       <c r="C46" t="s">
         <v>502</v>
@@ -12088,7 +12094,7 @@
         <v>498</v>
       </c>
       <c r="B47" t="s">
-        <v>1024</v>
+        <v>1015</v>
       </c>
       <c r="C47" t="s">
         <v>498</v>
@@ -12099,7 +12105,7 @@
         <v>499</v>
       </c>
       <c r="B48" t="s">
-        <v>1025</v>
+        <v>1016</v>
       </c>
       <c r="C48" t="s">
         <v>503</v>
@@ -12110,7 +12116,7 @@
         <v>500</v>
       </c>
       <c r="B49" t="s">
-        <v>1026</v>
+        <v>1017</v>
       </c>
       <c r="C49" t="s">
         <v>504</v>
@@ -12121,7 +12127,7 @@
         <v>544</v>
       </c>
       <c r="B50" t="s">
-        <v>1026</v>
+        <v>1017</v>
       </c>
       <c r="C50" t="s">
         <v>504</v>
@@ -12132,7 +12138,7 @@
         <v>660</v>
       </c>
       <c r="B51" t="s">
-        <v>1027</v>
+        <v>1018</v>
       </c>
       <c r="C51" t="s">
         <v>661</v>
@@ -12143,7 +12149,7 @@
         <v>674</v>
       </c>
       <c r="B52" t="s">
-        <v>1028</v>
+        <v>1019</v>
       </c>
       <c r="C52" t="s">
         <v>675</v>
@@ -12154,7 +12160,7 @@
         <v>676</v>
       </c>
       <c r="B53" t="s">
-        <v>1029</v>
+        <v>1020</v>
       </c>
       <c r="C53" t="s">
         <v>844</v>
@@ -12165,7 +12171,7 @@
         <v>680</v>
       </c>
       <c r="B54" t="s">
-        <v>1030</v>
+        <v>1021</v>
       </c>
       <c r="C54" t="s">
         <v>681</v>
@@ -12176,7 +12182,7 @@
         <v>815</v>
       </c>
       <c r="B55" t="s">
-        <v>1035</v>
+        <v>1026</v>
       </c>
       <c r="C55" t="s">
         <v>816</v>
@@ -12187,7 +12193,7 @@
         <v>751</v>
       </c>
       <c r="B56" t="s">
-        <v>1031</v>
+        <v>1022</v>
       </c>
       <c r="C56" t="s">
         <v>752</v>
@@ -12198,7 +12204,7 @@
         <v>651</v>
       </c>
       <c r="B57" t="s">
-        <v>996</v>
+        <v>988</v>
       </c>
       <c r="C57" t="s">
         <v>650</v>
@@ -12209,7 +12215,7 @@
         <v>652</v>
       </c>
       <c r="B58" t="s">
-        <v>1039</v>
+        <v>1027</v>
       </c>
       <c r="C58" t="s">
         <v>653</v>
@@ -12220,7 +12226,7 @@
         <v>655</v>
       </c>
       <c r="B59" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
       <c r="C59" t="s">
         <v>654</v>
@@ -12231,7 +12237,7 @@
         <v>657</v>
       </c>
       <c r="B60" t="s">
-        <v>998</v>
+        <v>990</v>
       </c>
       <c r="C60" t="s">
         <v>656</v>
@@ -12242,7 +12248,7 @@
         <v>658</v>
       </c>
       <c r="B61" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
       <c r="C61" t="s">
         <v>659</v>
@@ -12257,7 +12263,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -12289,7 +12295,7 @@
         <v>91</v>
       </c>
       <c r="F1" s="74" t="s">
-        <v>990</v>
+        <v>982</v>
       </c>
       <c r="G1" s="74" t="s">
         <v>88</v>
@@ -12310,7 +12316,7 @@
         <v>677</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>1061</v>
+        <v>1049</v>
       </c>
       <c r="G2" s="21" t="s">
         <v>719</v>
@@ -12327,7 +12333,7 @@
         <v>89</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>1041</v>
+        <v>1029</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>663</v>
@@ -12344,7 +12350,7 @@
         <v>667</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>784</v>
@@ -12361,7 +12367,7 @@
         <v>748</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>1042</v>
+        <v>1030</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>785</v>
@@ -12378,7 +12384,7 @@
         <v>673</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>1044</v>
+        <v>1032</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>786</v>
@@ -12395,7 +12401,7 @@
         <v>668</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>1043</v>
+        <v>1031</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>787</v>
@@ -12415,7 +12421,7 @@
         <v>747</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>1097</v>
+        <v>1084</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>789</v>
@@ -12432,7 +12438,7 @@
         <v>749</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>1098</v>
+        <v>1085</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>788</v>
@@ -12455,7 +12461,7 @@
         <v>678</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>1046</v>
+        <v>1034</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>665</v>
@@ -12474,7 +12480,7 @@
       <c r="D11" s="19"/>
       <c r="E11" s="22"/>
       <c r="F11" s="21" t="s">
-        <v>1047</v>
+        <v>1035</v>
       </c>
       <c r="G11" s="21" t="s">
         <v>666</v>
@@ -12497,7 +12503,7 @@
         <v>679</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>1048</v>
+        <v>1036</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>670</v>
@@ -12518,7 +12524,7 @@
         <v>834</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>1049</v>
+        <v>1037</v>
       </c>
       <c r="G13" s="21" t="s">
         <v>672</v>
@@ -12535,7 +12541,7 @@
         <v>89</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>1050</v>
+        <v>1038</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>720</v>
@@ -12558,7 +12564,7 @@
         <v>689</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>1051</v>
+        <v>1039</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>685</v>
@@ -12591,7 +12597,7 @@
         <v>695</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>1052</v>
+        <v>1040</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>686</v>
@@ -12614,7 +12620,7 @@
         <v>693</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>1053</v>
+        <v>1041</v>
       </c>
       <c r="G18" s="23" t="s">
         <v>690</v>
@@ -12646,7 +12652,7 @@
       </c>
       <c r="E20" s="22"/>
       <c r="F20" s="21" t="s">
-        <v>1054</v>
+        <v>1042</v>
       </c>
       <c r="G20" s="21" t="s">
         <v>721</v>
@@ -12683,7 +12689,7 @@
         <v>694</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>1055</v>
+        <v>1043</v>
       </c>
       <c r="G22" s="21" t="s">
         <v>722</v>
@@ -12721,7 +12727,7 @@
         <v>817</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>1057</v>
+        <v>1045</v>
       </c>
       <c r="G24" s="21" t="s">
         <v>812</v>
@@ -12741,7 +12747,7 @@
         <v>818</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>1056</v>
+        <v>1044</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>807</v>
@@ -12764,7 +12770,7 @@
         <v>819</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>1058</v>
+        <v>1046</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>811</v>
@@ -12785,7 +12791,7 @@
         <v>821</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>1059</v>
+        <v>1047</v>
       </c>
       <c r="G27" s="21" t="s">
         <v>810</v>
@@ -12804,7 +12810,7 @@
       <c r="D28" s="24"/>
       <c r="E28" s="34"/>
       <c r="F28" s="23" t="s">
-        <v>1060</v>
+        <v>1048</v>
       </c>
       <c r="G28" s="23" t="s">
         <v>820</v>

--- a/OLiVE_StateMachineGR.xlsx
+++ b/OLiVE_StateMachineGR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="420" windowWidth="16275" windowHeight="8205" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="420" windowWidth="16275" windowHeight="8205" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="2" r:id="rId1"/>
@@ -3318,9 +3318,6 @@
     <t>το ποτιστήρι</t>
   </si>
   <si>
-    <t>Πρέπει να συνδέσεις τον σωλήνα που λείπει πριν ανοίξεις τη βαλβίδα παροχής νερού</t>
-  </si>
-  <si>
     <t>Χρειάζεσαι κάποιον να προσαρμόσει το σωλήνα στη μεριά του τοίχου ενώ γυρνάς τη γωνία</t>
   </si>
   <si>
@@ -3378,9 +3375,6 @@
     <t>Δεν χρειάζεται να μεταφέρεις τα σακιά με τις ελιές προς το παρόν</t>
   </si>
   <si>
-    <t>a/waterPipe/Ένας σωλήνας που συνδέει τη δεξαμενή νερού με το λέβητα λείπει</t>
-  </si>
-  <si>
     <t>welcome</t>
   </si>
   <si>
@@ -3532,6 +3526,12 @@
   </si>
   <si>
     <t>Το δοχείο είναι γεμάτο λάδι και είναι πολύ βαρύ (80 κιλά ) για να το μεταφέρεις μόνος σου</t>
+  </si>
+  <si>
+    <t>Πρέπει να συνδέσεις το σωλήνα που λείπει πριν ανοίξεις τη βαλβίδα παροχής νερού</t>
+  </si>
+  <si>
+    <t>a/waterPipe/Λείπει ο σωλήνας που συνδέει τη δεξαμενή νερού με το λέβητα</t>
   </si>
 </sst>
 </file>
@@ -5256,7 +5256,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A276" workbookViewId="0">
+    <sheetView topLeftCell="A276" workbookViewId="0">
       <selection activeCell="F283" sqref="F283"/>
     </sheetView>
   </sheetViews>
@@ -5847,7 +5847,7 @@
         <v>793</v>
       </c>
       <c r="F30" s="80" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="G30" s="80" t="s">
         <v>95</v>
@@ -5921,7 +5921,7 @@
         <v>435</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="G34" s="21" t="s">
         <v>457</v>
@@ -6783,7 +6783,7 @@
         <v>183</v>
       </c>
       <c r="F80" s="21" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="G80" s="21" t="s">
         <v>211</v>
@@ -9135,7 +9135,7 @@
         <v>828</v>
       </c>
       <c r="F203" s="23" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="G203" s="23" t="s">
         <v>937</v>
@@ -9310,7 +9310,7 @@
         <v>835</v>
       </c>
       <c r="F212" s="23" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="G212" s="23" t="s">
         <v>649</v>
@@ -9639,7 +9639,7 @@
         <v>827</v>
       </c>
       <c r="F229" s="23" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="G229" s="23" t="s">
         <v>648</v>
@@ -9812,7 +9812,7 @@
         <v>836</v>
       </c>
       <c r="F238" s="23" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="G238" s="23" t="s">
         <v>649</v>
@@ -9932,7 +9932,7 @@
         <v>295</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="G245" s="2" t="s">
         <v>297</v>
@@ -10027,7 +10027,7 @@
         <v>533</v>
       </c>
       <c r="F250" s="21" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="G250" s="21" t="s">
         <v>322</v>
@@ -10096,7 +10096,7 @@
         <v>305</v>
       </c>
       <c r="F254" s="21" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="G254" s="21" t="s">
         <v>313</v>
@@ -10119,7 +10119,7 @@
         <v>352</v>
       </c>
       <c r="F255" s="46" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="G255" s="46" t="s">
         <v>342</v>
@@ -10524,7 +10524,7 @@
         <v>564</v>
       </c>
       <c r="F277" s="38" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="G277" s="38" t="s">
         <v>551</v>
@@ -10616,7 +10616,7 @@
         <v>729</v>
       </c>
       <c r="F282" s="2" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="G282" s="2" t="s">
         <v>717</v>
@@ -10928,7 +10928,7 @@
         <v>558</v>
       </c>
       <c r="F299" s="38" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="G299" s="38" t="s">
         <v>550</v>
@@ -11020,7 +11020,7 @@
         <v>730</v>
       </c>
       <c r="F304" s="2" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="G304" s="2" t="s">
         <v>717</v>
@@ -11152,7 +11152,7 @@
         <v>374</v>
       </c>
       <c r="E311" s="4" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="H311" s="70" t="s">
         <v>377</v>
@@ -11171,7 +11171,7 @@
       <c r="D312" s="19"/>
       <c r="E312" s="22"/>
       <c r="F312" s="21" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="G312" s="21" t="s">
         <v>826</v>
@@ -11212,7 +11212,7 @@
         <v>375</v>
       </c>
       <c r="E314" s="4" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="H314" s="70" t="s">
         <v>377</v>
@@ -11250,7 +11250,7 @@
         <v>378</v>
       </c>
       <c r="E316" s="4" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
     </row>
   </sheetData>
@@ -11585,101 +11585,101 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B1" t="s">
         <v>1050</v>
       </c>
-      <c r="B1" t="s">
-        <v>1052</v>
-      </c>
       <c r="C1" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B2" t="s">
         <v>1053</v>
       </c>
-      <c r="B2" t="s">
-        <v>1055</v>
-      </c>
       <c r="C2" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="B3" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="C3" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C4" t="s">
         <v>1058</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1059</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1060</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="B5" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="C5" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="B6" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="C6" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C7" t="s">
         <v>1076</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1080</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1078</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B8" t="s">
         <v>1070</v>
       </c>
-      <c r="B8" t="s">
-        <v>1072</v>
-      </c>
       <c r="C8" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C9" t="s">
         <v>1073</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1075</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -11841,7 +11841,7 @@
         <v>469</v>
       </c>
       <c r="B24" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="C24" t="s">
         <v>642</v>
@@ -11852,7 +11852,7 @@
         <v>472</v>
       </c>
       <c r="B25" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="C25" t="s">
         <v>642</v>
@@ -11863,7 +11863,7 @@
         <v>491</v>
       </c>
       <c r="B26" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="C26" t="s">
         <v>643</v>
@@ -11874,7 +11874,7 @@
         <v>492</v>
       </c>
       <c r="B27" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="C27" t="s">
         <v>643</v>
@@ -11885,7 +11885,7 @@
         <v>536</v>
       </c>
       <c r="B28" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="C28" t="s">
         <v>644</v>
@@ -11907,7 +11907,7 @@
         <v>471</v>
       </c>
       <c r="B30" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="C30" t="s">
         <v>646</v>
@@ -11918,7 +11918,7 @@
         <v>479</v>
       </c>
       <c r="B31" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="C31" t="s">
         <v>646</v>
@@ -11929,7 +11929,7 @@
         <v>474</v>
       </c>
       <c r="B32" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="C32" t="s">
         <v>628</v>
@@ -12263,8 +12263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12316,7 +12316,7 @@
         <v>677</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>1049</v>
+        <v>1100</v>
       </c>
       <c r="G2" s="21" t="s">
         <v>719</v>
@@ -12333,7 +12333,7 @@
         <v>89</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>1029</v>
+        <v>1099</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>663</v>
@@ -12350,7 +12350,7 @@
         <v>667</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>784</v>
@@ -12367,7 +12367,7 @@
         <v>748</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>785</v>
@@ -12384,7 +12384,7 @@
         <v>673</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>786</v>
@@ -12401,7 +12401,7 @@
         <v>668</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>787</v>
@@ -12421,7 +12421,7 @@
         <v>747</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>789</v>
@@ -12438,7 +12438,7 @@
         <v>749</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>788</v>
@@ -12461,7 +12461,7 @@
         <v>678</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>665</v>
@@ -12480,7 +12480,7 @@
       <c r="D11" s="19"/>
       <c r="E11" s="22"/>
       <c r="F11" s="21" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="G11" s="21" t="s">
         <v>666</v>
@@ -12503,7 +12503,7 @@
         <v>679</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>670</v>
@@ -12524,7 +12524,7 @@
         <v>834</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="G13" s="21" t="s">
         <v>672</v>
@@ -12541,7 +12541,7 @@
         <v>89</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>720</v>
@@ -12564,7 +12564,7 @@
         <v>689</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>685</v>
@@ -12597,7 +12597,7 @@
         <v>695</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>686</v>
@@ -12620,7 +12620,7 @@
         <v>693</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="G18" s="23" t="s">
         <v>690</v>
@@ -12652,7 +12652,7 @@
       </c>
       <c r="E20" s="22"/>
       <c r="F20" s="21" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="G20" s="21" t="s">
         <v>721</v>
@@ -12689,7 +12689,7 @@
         <v>694</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="G22" s="21" t="s">
         <v>722</v>
@@ -12727,7 +12727,7 @@
         <v>817</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="G24" s="21" t="s">
         <v>812</v>
@@ -12747,7 +12747,7 @@
         <v>818</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>807</v>
@@ -12770,7 +12770,7 @@
         <v>819</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>811</v>
@@ -12791,7 +12791,7 @@
         <v>821</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="G27" s="21" t="s">
         <v>810</v>
@@ -12810,7 +12810,7 @@
       <c r="D28" s="24"/>
       <c r="E28" s="34"/>
       <c r="F28" s="23" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="G28" s="23" t="s">
         <v>820</v>
